--- a/data/pca/factorExposure/factorExposure_2016-11-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01810499648273138</v>
+        <v>0.01617968803798051</v>
       </c>
       <c r="C2">
-        <v>0.0452349278315456</v>
+        <v>-0.04359705074561747</v>
       </c>
       <c r="D2">
-        <v>0.02114077596582486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05445112423170872</v>
+      </c>
+      <c r="E2">
+        <v>0.01804638237512636</v>
+      </c>
+      <c r="F2">
+        <v>0.08978578337959023</v>
+      </c>
+      <c r="G2">
+        <v>0.03549094129892541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05595235996942289</v>
+        <v>0.03524381596044965</v>
       </c>
       <c r="C3">
-        <v>0.1029780919492381</v>
+        <v>-0.08673593543948001</v>
       </c>
       <c r="D3">
-        <v>0.02580044754210088</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09606628870076064</v>
+      </c>
+      <c r="E3">
+        <v>0.02539228298036614</v>
+      </c>
+      <c r="F3">
+        <v>0.08800049815449058</v>
+      </c>
+      <c r="G3">
+        <v>-0.06944281480386573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06195837910274255</v>
+        <v>0.05832719318282711</v>
       </c>
       <c r="C4">
-        <v>0.06650134907521334</v>
+        <v>-0.06213239955056848</v>
       </c>
       <c r="D4">
-        <v>0.0002769496456355478</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05481419514163239</v>
+      </c>
+      <c r="E4">
+        <v>0.01309692584264721</v>
+      </c>
+      <c r="F4">
+        <v>0.09597676722989738</v>
+      </c>
+      <c r="G4">
+        <v>-0.02622639714784277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02568119995736062</v>
+        <v>0.03534638075563151</v>
       </c>
       <c r="C6">
-        <v>0.05114337214742654</v>
+        <v>-0.03849989119982604</v>
       </c>
       <c r="D6">
-        <v>0.008758630405126252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0643050216882967</v>
+      </c>
+      <c r="E6">
+        <v>0.01567242305003072</v>
+      </c>
+      <c r="F6">
+        <v>0.08808432188952128</v>
+      </c>
+      <c r="G6">
+        <v>-0.005458353259113507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02162512724213635</v>
+        <v>0.02224591825951015</v>
       </c>
       <c r="C7">
-        <v>0.04575479327064277</v>
+        <v>-0.03796762020252369</v>
       </c>
       <c r="D7">
-        <v>-0.01464042749845664</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.02881188522530859</v>
+      </c>
+      <c r="E7">
+        <v>0.0003311893374824277</v>
+      </c>
+      <c r="F7">
+        <v>0.116966966628706</v>
+      </c>
+      <c r="G7">
+        <v>0.01090952194833626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.000514406421295813</v>
+        <v>0.00662564762345181</v>
       </c>
       <c r="C8">
-        <v>0.01034101311663429</v>
+        <v>-0.02005902402526696</v>
       </c>
       <c r="D8">
-        <v>0.01482893878453495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03332123657979102</v>
+      </c>
+      <c r="E8">
+        <v>0.01214459466192295</v>
+      </c>
+      <c r="F8">
+        <v>0.06955313543977804</v>
+      </c>
+      <c r="G8">
+        <v>-0.004885727830157146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02864953494615303</v>
+        <v>0.03711121844279944</v>
       </c>
       <c r="C9">
-        <v>0.0458570418373347</v>
+        <v>-0.04828579760671524</v>
       </c>
       <c r="D9">
-        <v>-0.005098138366185995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03712993084853181</v>
+      </c>
+      <c r="E9">
+        <v>0.009275537829551475</v>
+      </c>
+      <c r="F9">
+        <v>0.09975160489136294</v>
+      </c>
+      <c r="G9">
+        <v>-0.008198317864899463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08355500683066362</v>
+        <v>0.09443638432390435</v>
       </c>
       <c r="C10">
-        <v>-0.198937500955898</v>
+        <v>0.1951260490615974</v>
       </c>
       <c r="D10">
-        <v>0.02293123680599323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01190130595418608</v>
+      </c>
+      <c r="E10">
+        <v>0.03417211442228973</v>
+      </c>
+      <c r="F10">
+        <v>0.05272195968273474</v>
+      </c>
+      <c r="G10">
+        <v>0.0003773461783482343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04160456571631754</v>
+        <v>0.03778787145117966</v>
       </c>
       <c r="C11">
-        <v>0.05557884113512883</v>
+        <v>-0.05202338023555564</v>
       </c>
       <c r="D11">
-        <v>-0.01181331639457502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02423078342955906</v>
+      </c>
+      <c r="E11">
+        <v>-0.01342555533624026</v>
+      </c>
+      <c r="F11">
+        <v>0.06752687294310016</v>
+      </c>
+      <c r="G11">
+        <v>-0.004732678985904252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03582998027021807</v>
+        <v>0.03838721871775275</v>
       </c>
       <c r="C12">
-        <v>0.04606359133053211</v>
+        <v>-0.0472074941690944</v>
       </c>
       <c r="D12">
-        <v>-0.01043215368334556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.01800371697518508</v>
+      </c>
+      <c r="E12">
+        <v>-0.003612067104269487</v>
+      </c>
+      <c r="F12">
+        <v>0.06981257204672417</v>
+      </c>
+      <c r="G12">
+        <v>-0.001067937451145215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01105290021654677</v>
+        <v>0.01458825426267452</v>
       </c>
       <c r="C13">
-        <v>0.04173295245527144</v>
+        <v>-0.04118006689075308</v>
       </c>
       <c r="D13">
-        <v>0.01648403687610183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06048050620138041</v>
+      </c>
+      <c r="E13">
+        <v>0.02826710274600741</v>
+      </c>
+      <c r="F13">
+        <v>0.1328952611150897</v>
+      </c>
+      <c r="G13">
+        <v>-0.006141585723413549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.005877775280616747</v>
+        <v>0.008072655198690562</v>
       </c>
       <c r="C14">
-        <v>0.03042338074352344</v>
+        <v>-0.02768120232345317</v>
       </c>
       <c r="D14">
-        <v>-0.01383390527206436</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02225844125693489</v>
+      </c>
+      <c r="E14">
+        <v>0.006850697145141939</v>
+      </c>
+      <c r="F14">
+        <v>0.1036551154140374</v>
+      </c>
+      <c r="G14">
+        <v>0.01671359249514519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0009791020682758831</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.0003122601100901753</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.001777296632749197</v>
+      </c>
+      <c r="E15">
+        <v>-0.001059001468271304</v>
+      </c>
+      <c r="F15">
+        <v>0.001217285113690501</v>
+      </c>
+      <c r="G15">
+        <v>0.0008811147959828664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03551942288437622</v>
+        <v>0.03524349582658339</v>
       </c>
       <c r="C16">
-        <v>0.04077700721957439</v>
+        <v>-0.04470144339449493</v>
       </c>
       <c r="D16">
-        <v>-0.002418923200255677</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02262132306096006</v>
+      </c>
+      <c r="E16">
+        <v>0.002290407522370088</v>
+      </c>
+      <c r="F16">
+        <v>0.07299459215391969</v>
+      </c>
+      <c r="G16">
+        <v>0.00923533441692816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03222781192303779</v>
+        <v>0.02042856233475363</v>
       </c>
       <c r="C19">
-        <v>0.05996232986626767</v>
+        <v>-0.04967726235606396</v>
       </c>
       <c r="D19">
-        <v>0.03422848926615818</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1000484359305769</v>
+      </c>
+      <c r="E19">
+        <v>0.0328898044511012</v>
+      </c>
+      <c r="F19">
+        <v>0.1367238765336956</v>
+      </c>
+      <c r="G19">
+        <v>0.02404652364117333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01383638339335635</v>
+        <v>0.01630328317556837</v>
       </c>
       <c r="C20">
-        <v>0.04499513574316635</v>
+        <v>-0.03890324000334632</v>
       </c>
       <c r="D20">
-        <v>0.02138214447282374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04463859045542101</v>
+      </c>
+      <c r="E20">
+        <v>0.03478311361837813</v>
+      </c>
+      <c r="F20">
+        <v>0.1011946059635882</v>
+      </c>
+      <c r="G20">
+        <v>0.00787054556498799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.007342484002529336</v>
+        <v>0.009868697531085791</v>
       </c>
       <c r="C21">
-        <v>0.0399613325697603</v>
+        <v>-0.04078097893545641</v>
       </c>
       <c r="D21">
-        <v>0.02548107723128575</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06145364520442707</v>
+      </c>
+      <c r="E21">
+        <v>0.02952088611774587</v>
+      </c>
+      <c r="F21">
+        <v>0.1483383931210529</v>
+      </c>
+      <c r="G21">
+        <v>0.006956096536766801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.004611276433095999</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01504010575346914</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.02493616961603935</v>
+      </c>
+      <c r="E22">
+        <v>0.00162329664601161</v>
+      </c>
+      <c r="F22">
+        <v>0.02016370520766236</v>
+      </c>
+      <c r="G22">
+        <v>-0.03353364851416386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.004665452555692793</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01498983784585803</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02468783058900705</v>
+      </c>
+      <c r="E23">
+        <v>0.001937772859749758</v>
+      </c>
+      <c r="F23">
+        <v>0.01988770158823835</v>
+      </c>
+      <c r="G23">
+        <v>-0.03355793787386548</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02931166595360869</v>
+        <v>0.03363471229124627</v>
       </c>
       <c r="C24">
-        <v>0.0476861153812713</v>
+        <v>-0.05207828921342549</v>
       </c>
       <c r="D24">
-        <v>-0.01216357422754552</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.01918430037932681</v>
+      </c>
+      <c r="E24">
+        <v>-0.003920371516144132</v>
+      </c>
+      <c r="F24">
+        <v>0.07744544790894943</v>
+      </c>
+      <c r="G24">
+        <v>0.004110530229090176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04690467704775191</v>
+        <v>0.04421197260234543</v>
       </c>
       <c r="C25">
-        <v>0.05599820544288993</v>
+        <v>-0.05655905061809566</v>
       </c>
       <c r="D25">
-        <v>-0.02311318189585865</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01537310162879048</v>
+      </c>
+      <c r="E25">
+        <v>-0.006062881143559322</v>
+      </c>
+      <c r="F25">
+        <v>0.08413226365092608</v>
+      </c>
+      <c r="G25">
+        <v>-0.0130366181434587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.009617348901763478</v>
+        <v>0.01552004071165825</v>
       </c>
       <c r="C26">
-        <v>0.01274855545601446</v>
+        <v>-0.0132104571493606</v>
       </c>
       <c r="D26">
-        <v>-0.001148418714107043</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0165585516127785</v>
+      </c>
+      <c r="E26">
+        <v>0.009328047472591172</v>
+      </c>
+      <c r="F26">
+        <v>0.08120413145588647</v>
+      </c>
+      <c r="G26">
+        <v>0.0215118622332511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09730792828427041</v>
+        <v>0.1275956177011866</v>
       </c>
       <c r="C28">
-        <v>-0.2262253058638406</v>
+        <v>0.2457542259524209</v>
       </c>
       <c r="D28">
-        <v>0.01272225697160181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.007571347812749153</v>
+      </c>
+      <c r="E28">
+        <v>0.03685412520559383</v>
+      </c>
+      <c r="F28">
+        <v>0.06319482894862841</v>
+      </c>
+      <c r="G28">
+        <v>-0.004585660954261662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01169921854961193</v>
+        <v>0.009176723693934201</v>
       </c>
       <c r="C29">
-        <v>0.02191920197884859</v>
+        <v>-0.02286666298257309</v>
       </c>
       <c r="D29">
-        <v>-0.01146459089339676</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01294302654723625</v>
+      </c>
+      <c r="E29">
+        <v>0.0115163644799984</v>
+      </c>
+      <c r="F29">
+        <v>0.09833389026529404</v>
+      </c>
+      <c r="G29">
+        <v>0.003458956067505833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.040976175252924</v>
+        <v>0.04004741360691035</v>
       </c>
       <c r="C30">
-        <v>0.07336185571814062</v>
+        <v>-0.06495554947402937</v>
       </c>
       <c r="D30">
-        <v>-0.002009493841272957</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09093195815014167</v>
+      </c>
+      <c r="E30">
+        <v>-0.01409306654618823</v>
+      </c>
+      <c r="F30">
+        <v>0.1096288230529554</v>
+      </c>
+      <c r="G30">
+        <v>0.02835935502506623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04297423425885579</v>
+        <v>0.05785687942147358</v>
       </c>
       <c r="C31">
-        <v>0.03102692910573567</v>
+        <v>-0.04440292601091513</v>
       </c>
       <c r="D31">
-        <v>-0.01171498202120798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.002917733040528171</v>
+      </c>
+      <c r="E31">
+        <v>0.03408150436265508</v>
+      </c>
+      <c r="F31">
+        <v>0.09354914644964292</v>
+      </c>
+      <c r="G31">
+        <v>-0.03030025426146143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.00776042736030321</v>
+        <v>0.004962833716634308</v>
       </c>
       <c r="C32">
-        <v>0.03483123718627959</v>
+        <v>-0.028242963140519</v>
       </c>
       <c r="D32">
-        <v>0.0111044329818987</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04325442187890925</v>
+      </c>
+      <c r="E32">
+        <v>-0.002704545288468694</v>
+      </c>
+      <c r="F32">
+        <v>0.07831610398334625</v>
+      </c>
+      <c r="G32">
+        <v>0.01152873973006333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03168555764318279</v>
+        <v>0.02812839794461482</v>
       </c>
       <c r="C33">
-        <v>0.0575915281340008</v>
+        <v>-0.04942510623601756</v>
       </c>
       <c r="D33">
-        <v>0.003737626100051655</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07013122419611183</v>
+      </c>
+      <c r="E33">
+        <v>0.007892407479922033</v>
+      </c>
+      <c r="F33">
+        <v>0.1517918161067579</v>
+      </c>
+      <c r="G33">
+        <v>-0.007137960493320794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05282433227566003</v>
+        <v>0.04391312812291866</v>
       </c>
       <c r="C34">
-        <v>0.05456332661573095</v>
+        <v>-0.06212334992807823</v>
       </c>
       <c r="D34">
-        <v>-0.01831911057386025</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02254830384931746</v>
+      </c>
+      <c r="E34">
+        <v>-0.01988597944630584</v>
+      </c>
+      <c r="F34">
+        <v>0.07678556134123805</v>
+      </c>
+      <c r="G34">
+        <v>-0.0006988565163077672</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01077455565464541</v>
+        <v>0.01656544547477544</v>
       </c>
       <c r="C36">
-        <v>0.008177430463211703</v>
+        <v>-0.00845299211639056</v>
       </c>
       <c r="D36">
-        <v>-0.006434913511192405</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01982221828396743</v>
+      </c>
+      <c r="E36">
+        <v>0.01380831889456643</v>
+      </c>
+      <c r="F36">
+        <v>0.09575286481149242</v>
+      </c>
+      <c r="G36">
+        <v>-0.0006936475324631088</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03730648809555764</v>
+        <v>0.02942351680572043</v>
       </c>
       <c r="C38">
-        <v>0.021633806219091</v>
+        <v>-0.02172528147046914</v>
       </c>
       <c r="D38">
-        <v>-0.009466239601733517</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02111807953610919</v>
+      </c>
+      <c r="E38">
+        <v>0.01510963014395736</v>
+      </c>
+      <c r="F38">
+        <v>0.08571586943938929</v>
+      </c>
+      <c r="G38">
+        <v>-0.003373767879646013</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.037946140428456</v>
+        <v>0.03853637845999212</v>
       </c>
       <c r="C39">
-        <v>0.08382869035386552</v>
+        <v>-0.07365240100189202</v>
       </c>
       <c r="D39">
-        <v>0.004851009831738698</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0467271020597158</v>
+      </c>
+      <c r="E39">
+        <v>-0.01362571210941041</v>
+      </c>
+      <c r="F39">
+        <v>0.08525970127910694</v>
+      </c>
+      <c r="G39">
+        <v>0.03432661526282571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01796718529830308</v>
+        <v>0.01936473515518676</v>
       </c>
       <c r="C40">
-        <v>0.02668182924628341</v>
+        <v>-0.03742847026548131</v>
       </c>
       <c r="D40">
-        <v>0.01895728863195731</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03369246006626609</v>
+      </c>
+      <c r="E40">
+        <v>0.03423324601120774</v>
+      </c>
+      <c r="F40">
+        <v>0.1183664256743991</v>
+      </c>
+      <c r="G40">
+        <v>-0.04011900179367803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0110008972295155</v>
+        <v>0.01910878509667977</v>
       </c>
       <c r="C41">
-        <v>0.0001832113440892936</v>
+        <v>-0.0002078214238810137</v>
       </c>
       <c r="D41">
-        <v>-0.007836402772988858</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01585270812735783</v>
+      </c>
+      <c r="E41">
+        <v>0.01803810300538036</v>
+      </c>
+      <c r="F41">
+        <v>0.0863848728905975</v>
+      </c>
+      <c r="G41">
+        <v>0.005505000937196378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.01796265422228491</v>
+        <v>0.009822580399911376</v>
       </c>
       <c r="C42">
-        <v>0.03434470371384904</v>
+        <v>-0.01869002701729332</v>
       </c>
       <c r="D42">
-        <v>0.02651053979919609</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0129341497278335</v>
+      </c>
+      <c r="E42">
+        <v>0.01664544133048184</v>
+      </c>
+      <c r="F42">
+        <v>-0.01778371603549101</v>
+      </c>
+      <c r="G42">
+        <v>0.004039626584919607</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03391900498590177</v>
+        <v>0.03355336275135787</v>
       </c>
       <c r="C43">
-        <v>0.01220751467404207</v>
+        <v>-0.01386907638979656</v>
       </c>
       <c r="D43">
-        <v>-0.006821824749591143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03439352042289114</v>
+      </c>
+      <c r="E43">
+        <v>0.01484849173936967</v>
+      </c>
+      <c r="F43">
+        <v>0.1090724124807412</v>
+      </c>
+      <c r="G43">
+        <v>-0.01629163985835504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0212045054883821</v>
+        <v>0.01751668172157612</v>
       </c>
       <c r="C44">
-        <v>0.05510625186318217</v>
+        <v>-0.05484900481529233</v>
       </c>
       <c r="D44">
-        <v>0.003825118148749761</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03617412573809627</v>
+      </c>
+      <c r="E44">
+        <v>0.02754307371280349</v>
+      </c>
+      <c r="F44">
+        <v>0.1103198379248157</v>
+      </c>
+      <c r="G44">
+        <v>0.01459158269131275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0002529471035256518</v>
+        <v>0.01094209977258911</v>
       </c>
       <c r="C46">
-        <v>0.01430637304506274</v>
+        <v>-0.01897429856784444</v>
       </c>
       <c r="D46">
-        <v>-0.01747733743880201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.005488980222107714</v>
+      </c>
+      <c r="E46">
+        <v>0.01744539458234853</v>
+      </c>
+      <c r="F46">
+        <v>0.1086074886472518</v>
+      </c>
+      <c r="G46">
+        <v>0.01004698473157368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07848579460428973</v>
+        <v>0.08795650775978026</v>
       </c>
       <c r="C47">
-        <v>0.0684635940973024</v>
+        <v>-0.07207082870624121</v>
       </c>
       <c r="D47">
-        <v>-0.007143495441136464</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.00817762312607543</v>
+      </c>
+      <c r="E47">
+        <v>0.04104532357416277</v>
+      </c>
+      <c r="F47">
+        <v>0.0942417471281581</v>
+      </c>
+      <c r="G47">
+        <v>-0.0323168278402724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01792025221177141</v>
+        <v>0.01808420564825219</v>
       </c>
       <c r="C48">
-        <v>0.01068494113681803</v>
+        <v>-0.01468896740572418</v>
       </c>
       <c r="D48">
-        <v>-0.009582791521301173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0133362296263568</v>
+      </c>
+      <c r="E48">
+        <v>0.02340959431380298</v>
+      </c>
+      <c r="F48">
+        <v>0.1065830269599954</v>
+      </c>
+      <c r="G48">
+        <v>0.005377911527620258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08667476838240548</v>
+        <v>0.07536236380268825</v>
       </c>
       <c r="C50">
-        <v>0.06747544753971615</v>
+        <v>-0.06723162301004657</v>
       </c>
       <c r="D50">
-        <v>-0.01969621607669787</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001536205074623931</v>
+      </c>
+      <c r="E50">
+        <v>0.03503370805685126</v>
+      </c>
+      <c r="F50">
+        <v>0.0928433378268429</v>
+      </c>
+      <c r="G50">
+        <v>-0.06697075875196881</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0169333460929033</v>
+        <v>0.01213703647144575</v>
       </c>
       <c r="C51">
-        <v>0.03917985895287481</v>
+        <v>-0.03314151365099292</v>
       </c>
       <c r="D51">
-        <v>-0.00888012392318953</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0414692306140396</v>
+      </c>
+      <c r="E51">
+        <v>-0.004692236584273386</v>
+      </c>
+      <c r="F51">
+        <v>0.0984645091110658</v>
+      </c>
+      <c r="G51">
+        <v>0.02068371625571539</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09786059394127593</v>
+        <v>0.09186560370251051</v>
       </c>
       <c r="C53">
-        <v>0.06956968166374765</v>
+        <v>-0.08577720932048248</v>
       </c>
       <c r="D53">
-        <v>-0.02889876393568324</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03124108931432116</v>
+      </c>
+      <c r="E53">
+        <v>0.04884988559721031</v>
+      </c>
+      <c r="F53">
+        <v>0.1008957124985915</v>
+      </c>
+      <c r="G53">
+        <v>-0.03965290016767822</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03071265094756706</v>
+        <v>0.03258539612466804</v>
       </c>
       <c r="C54">
-        <v>0.006468397572504974</v>
+        <v>-0.02257511491042714</v>
       </c>
       <c r="D54">
-        <v>-0.001936257903176763</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02427008948930642</v>
+      </c>
+      <c r="E54">
+        <v>0.013020940858894</v>
+      </c>
+      <c r="F54">
+        <v>0.1067672698637289</v>
+      </c>
+      <c r="G54">
+        <v>0.003060850751502105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07405956339770688</v>
+        <v>0.08278500285509659</v>
       </c>
       <c r="C55">
-        <v>0.06502368477087231</v>
+        <v>-0.06923490051628611</v>
       </c>
       <c r="D55">
-        <v>-0.02698908790899384</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03650965925023416</v>
+      </c>
+      <c r="E55">
+        <v>0.0456826904148783</v>
+      </c>
+      <c r="F55">
+        <v>0.06796879662206877</v>
+      </c>
+      <c r="G55">
+        <v>-0.035508577622999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1517224039406685</v>
+        <v>0.1449325466396723</v>
       </c>
       <c r="C56">
-        <v>0.09061646724817156</v>
+        <v>-0.1022135382016919</v>
       </c>
       <c r="D56">
-        <v>-0.02443145615737524</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03832613733606271</v>
+      </c>
+      <c r="E56">
+        <v>0.05140253343645747</v>
+      </c>
+      <c r="F56">
+        <v>0.05945412708972057</v>
+      </c>
+      <c r="G56">
+        <v>-0.04311916753949832</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.00397564909055545</v>
+        <v>0.001531446974173863</v>
       </c>
       <c r="C57">
-        <v>0.00745972584058529</v>
+        <v>-0.003574343885702282</v>
       </c>
       <c r="D57">
-        <v>0.03248607807587421</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02671014169393978</v>
+      </c>
+      <c r="E57">
+        <v>0.005780927134321673</v>
+      </c>
+      <c r="F57">
+        <v>0.00999985947435922</v>
+      </c>
+      <c r="G57">
+        <v>0.003820209781031828</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.06516029190163972</v>
+        <v>0.03707233015502895</v>
       </c>
       <c r="C58">
-        <v>0.08117238858751598</v>
+        <v>-0.04103137792932302</v>
       </c>
       <c r="D58">
-        <v>0.9723014384578934</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.6775125202660071</v>
+      </c>
+      <c r="E58">
+        <v>0.6261237040692742</v>
+      </c>
+      <c r="F58">
+        <v>-0.3153772925678963</v>
+      </c>
+      <c r="G58">
+        <v>-0.02684114385010163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1442600823493956</v>
+        <v>0.1483286203863336</v>
       </c>
       <c r="C59">
-        <v>-0.220121821292626</v>
+        <v>0.2031427440830563</v>
       </c>
       <c r="D59">
-        <v>0.01302742440011927</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02180387064806643</v>
+      </c>
+      <c r="E59">
+        <v>0.01507934495235825</v>
+      </c>
+      <c r="F59">
+        <v>0.03744463410843264</v>
+      </c>
+      <c r="G59">
+        <v>0.02361466982159678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3113801408495067</v>
+        <v>0.2835912724156539</v>
       </c>
       <c r="C60">
-        <v>0.08802680094580551</v>
+        <v>-0.09216036207573276</v>
       </c>
       <c r="D60">
-        <v>-0.007809898965518244</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1472985766281533</v>
+      </c>
+      <c r="E60">
+        <v>-0.2936294454981394</v>
+      </c>
+      <c r="F60">
+        <v>-0.1476540027313708</v>
+      </c>
+      <c r="G60">
+        <v>-0.06648016697511716</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03616018361622861</v>
+        <v>0.04147125411131975</v>
       </c>
       <c r="C61">
-        <v>0.06221691284098858</v>
+        <v>-0.06331381371749244</v>
       </c>
       <c r="D61">
-        <v>0.002287881588313878</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03794168877542802</v>
+      </c>
+      <c r="E61">
+        <v>-0.003601934552252204</v>
+      </c>
+      <c r="F61">
+        <v>0.08568872722504932</v>
+      </c>
+      <c r="G61">
+        <v>-0.0008340421852610614</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01706246978658062</v>
+        <v>0.01753105328017314</v>
       </c>
       <c r="C63">
-        <v>0.02768878937499438</v>
+        <v>-0.02892083582042006</v>
       </c>
       <c r="D63">
-        <v>-0.0175168943137185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01390761763997772</v>
+      </c>
+      <c r="E63">
+        <v>0.01429200431550969</v>
+      </c>
+      <c r="F63">
+        <v>0.09060864156622438</v>
+      </c>
+      <c r="G63">
+        <v>-0.01916019903035687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04831795698397526</v>
+        <v>0.05448026495619846</v>
       </c>
       <c r="C64">
-        <v>0.02882274507724152</v>
+        <v>-0.0467577540629792</v>
       </c>
       <c r="D64">
-        <v>-0.01498768798069071</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008900696965795891</v>
+      </c>
+      <c r="E64">
+        <v>-0.001620839254398717</v>
+      </c>
+      <c r="F64">
+        <v>0.09422961794876564</v>
+      </c>
+      <c r="G64">
+        <v>0.01615004553140351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08621859884848</v>
+        <v>0.068490742852871</v>
       </c>
       <c r="C65">
-        <v>0.06271419836115646</v>
+        <v>-0.0426493190159601</v>
       </c>
       <c r="D65">
-        <v>0.006578832519870325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.07468787747095602</v>
+      </c>
+      <c r="E65">
+        <v>-0.009653500362562059</v>
+      </c>
+      <c r="F65">
+        <v>0.03735433075342986</v>
+      </c>
+      <c r="G65">
+        <v>0.006414747970893122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06108774484533291</v>
+        <v>0.05216185335510192</v>
       </c>
       <c r="C66">
-        <v>0.1197489304276072</v>
+        <v>-0.09846936696011582</v>
       </c>
       <c r="D66">
-        <v>0.008629999994392023</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07044261089226408</v>
+      </c>
+      <c r="E66">
+        <v>-0.01632339430611266</v>
+      </c>
+      <c r="F66">
+        <v>0.08936701847967377</v>
+      </c>
+      <c r="G66">
+        <v>0.01484389546104441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06280237138348713</v>
+        <v>0.0518886984740098</v>
       </c>
       <c r="C67">
-        <v>0.02618027323670799</v>
+        <v>-0.02694139715389619</v>
       </c>
       <c r="D67">
-        <v>-0.01662059223034104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.007457575615964917</v>
+      </c>
+      <c r="E67">
+        <v>0.007500779372148767</v>
+      </c>
+      <c r="F67">
+        <v>0.06982541308168082</v>
+      </c>
+      <c r="G67">
+        <v>-0.009382178961377722</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1223370140971216</v>
+        <v>0.1497219268632217</v>
       </c>
       <c r="C68">
-        <v>-0.2874884462543531</v>
+        <v>0.2676433686255076</v>
       </c>
       <c r="D68">
-        <v>0.02778451465201891</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.008670928506056226</v>
+      </c>
+      <c r="E68">
+        <v>0.04335679396604473</v>
+      </c>
+      <c r="F68">
+        <v>0.02308011846191933</v>
+      </c>
+      <c r="G68">
+        <v>0.002947981896538103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08543549376580384</v>
+        <v>0.08741703258978954</v>
       </c>
       <c r="C69">
-        <v>0.06647010195221832</v>
+        <v>-0.07909835530189506</v>
       </c>
       <c r="D69">
-        <v>-0.03395986475996279</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01201823173154627</v>
+      </c>
+      <c r="E69">
+        <v>0.01407571709110202</v>
+      </c>
+      <c r="F69">
+        <v>0.09918012538572511</v>
+      </c>
+      <c r="G69">
+        <v>-0.006100231256645735</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.124423939557124</v>
+        <v>0.1387096888591605</v>
       </c>
       <c r="C71">
-        <v>-0.2396291434498585</v>
+        <v>0.2375722875253861</v>
       </c>
       <c r="D71">
-        <v>0.0283325454344222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02143993258262734</v>
+      </c>
+      <c r="E71">
+        <v>0.04341697701761259</v>
+      </c>
+      <c r="F71">
+        <v>0.06708816261169738</v>
+      </c>
+      <c r="G71">
+        <v>-0.01459766029994298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07798118877394726</v>
+        <v>0.08915810341361799</v>
       </c>
       <c r="C72">
-        <v>0.057864794324973</v>
+        <v>-0.05642198121543331</v>
       </c>
       <c r="D72">
-        <v>-0.04608354655104388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.005201389562439069</v>
+      </c>
+      <c r="E72">
+        <v>-0.02258755269391906</v>
+      </c>
+      <c r="F72">
+        <v>0.07886276118887146</v>
+      </c>
+      <c r="G72">
+        <v>-0.009570645666836642</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4394032424625919</v>
+        <v>0.356188235875853</v>
       </c>
       <c r="C73">
-        <v>0.08665422813795494</v>
+        <v>-0.07115744207832629</v>
       </c>
       <c r="D73">
-        <v>0.01054813060069141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.3298504033557658</v>
+      </c>
+      <c r="E73">
+        <v>-0.5301159940304658</v>
+      </c>
+      <c r="F73">
+        <v>-0.3122756120701582</v>
+      </c>
+      <c r="G73">
+        <v>-0.1579125722557679</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1153125472732832</v>
+        <v>0.1114680127050013</v>
       </c>
       <c r="C74">
-        <v>0.1162098554514231</v>
+        <v>-0.1036441219111971</v>
       </c>
       <c r="D74">
-        <v>-0.02428015107306179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01634175034130025</v>
+      </c>
+      <c r="E74">
+        <v>0.06267719184976028</v>
+      </c>
+      <c r="F74">
+        <v>0.07733671608283674</v>
+      </c>
+      <c r="G74">
+        <v>-0.0559374413585938</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.260994532459122</v>
+        <v>0.257958408611986</v>
       </c>
       <c r="C75">
-        <v>0.1208462727475812</v>
+        <v>-0.1342395820241212</v>
       </c>
       <c r="D75">
-        <v>-0.03823461343445603</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1026293680654137</v>
+      </c>
+      <c r="E75">
+        <v>0.120105191592159</v>
+      </c>
+      <c r="F75">
+        <v>0.02828407332698769</v>
+      </c>
+      <c r="G75">
+        <v>-0.05949723470028734</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.116534427479635</v>
+        <v>0.1295036287249386</v>
       </c>
       <c r="C76">
-        <v>0.1013473989980245</v>
+        <v>-0.1027395734630416</v>
       </c>
       <c r="D76">
-        <v>-0.03100003019993928</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04575942731934242</v>
+      </c>
+      <c r="E76">
+        <v>0.08118120155226555</v>
+      </c>
+      <c r="F76">
+        <v>0.08017125706300926</v>
+      </c>
+      <c r="G76">
+        <v>-0.04369918211209806</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07106989351769862</v>
+        <v>0.06832556607319409</v>
       </c>
       <c r="C77">
-        <v>0.05913539477528365</v>
+        <v>-0.06379389415734787</v>
       </c>
       <c r="D77">
-        <v>0.02748882858206379</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05755438599683819</v>
+      </c>
+      <c r="E77">
+        <v>0.03866736133590287</v>
+      </c>
+      <c r="F77">
+        <v>0.1012218872851018</v>
+      </c>
+      <c r="G77">
+        <v>0.1439601601435559</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04363046886671936</v>
+        <v>0.04287097249022693</v>
       </c>
       <c r="C78">
-        <v>0.04906900304678532</v>
+        <v>-0.05488853675889951</v>
       </c>
       <c r="D78">
-        <v>0.004332632978270047</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05861197964540042</v>
+      </c>
+      <c r="E78">
+        <v>-0.0191893953310995</v>
+      </c>
+      <c r="F78">
+        <v>0.0971378414213771</v>
+      </c>
+      <c r="G78">
+        <v>0.01040357631226198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.005975096667673147</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.02664665749720934</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01967021082038404</v>
+      </c>
+      <c r="E79">
+        <v>0.03253583077452278</v>
+      </c>
+      <c r="F79">
+        <v>0.04022061537671746</v>
+      </c>
+      <c r="G79">
+        <v>-0.02701028678565071</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04846345994972912</v>
+        <v>0.03952694835356378</v>
       </c>
       <c r="C80">
-        <v>0.05744220147844357</v>
+        <v>-0.04713383695825271</v>
       </c>
       <c r="D80">
-        <v>0.01698213886673096</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04426342423592662</v>
+      </c>
+      <c r="E80">
+        <v>0.001208707435087125</v>
+      </c>
+      <c r="F80">
+        <v>0.03398525986631468</v>
+      </c>
+      <c r="G80">
+        <v>0.0472756227159298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1379486368138949</v>
+        <v>0.142632827772359</v>
       </c>
       <c r="C81">
-        <v>0.0800082616268518</v>
+        <v>-0.09114412997382026</v>
       </c>
       <c r="D81">
-        <v>-0.0301554385038564</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07539850430543983</v>
+      </c>
+      <c r="E81">
+        <v>0.09891515660133508</v>
+      </c>
+      <c r="F81">
+        <v>0.04014455856224561</v>
+      </c>
+      <c r="G81">
+        <v>-0.04814224739963276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.06838526432398001</v>
+        <v>0.1885049066664508</v>
       </c>
       <c r="C82">
-        <v>0.04059198482497109</v>
+        <v>-0.132565835721148</v>
       </c>
       <c r="D82">
-        <v>-0.01882954933726733</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2125081848540562</v>
+      </c>
+      <c r="E82">
+        <v>0.0561442202153687</v>
+      </c>
+      <c r="F82">
+        <v>0.04172733874010177</v>
+      </c>
+      <c r="G82">
+        <v>0.0001949267965936317</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02776160792057105</v>
+        <v>0.02799045671159044</v>
       </c>
       <c r="C83">
-        <v>0.02043949637869075</v>
+        <v>-0.03406761255382966</v>
       </c>
       <c r="D83">
-        <v>0.01473301055895002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03265229930061971</v>
+      </c>
+      <c r="E83">
+        <v>-0.00705058666833482</v>
+      </c>
+      <c r="F83">
+        <v>0.05260562738089979</v>
+      </c>
+      <c r="G83">
+        <v>0.03097389903753355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2414562616633875</v>
+        <v>0.2108322823039719</v>
       </c>
       <c r="C85">
-        <v>0.1203683272773425</v>
+        <v>-0.1211946802580111</v>
       </c>
       <c r="D85">
-        <v>-0.1081107178645368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1036112783799269</v>
+      </c>
+      <c r="E85">
+        <v>0.04146975310990079</v>
+      </c>
+      <c r="F85">
+        <v>-0.01073670973134894</v>
+      </c>
+      <c r="G85">
+        <v>-0.1112371431313334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01313177676078197</v>
+        <v>0.01508087640419928</v>
       </c>
       <c r="C86">
-        <v>0.0268843083085177</v>
+        <v>-0.02865496734743517</v>
       </c>
       <c r="D86">
-        <v>0.007579975617188211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07332479623985115</v>
+      </c>
+      <c r="E86">
+        <v>1.58204453653285e-06</v>
+      </c>
+      <c r="F86">
+        <v>0.1609637388518036</v>
+      </c>
+      <c r="G86">
+        <v>0.03198898221167267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01419962705920148</v>
+        <v>0.02192355346370149</v>
       </c>
       <c r="C87">
-        <v>0.02507087315563979</v>
+        <v>-0.01643549544808203</v>
       </c>
       <c r="D87">
-        <v>0.07304019719697673</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0964761787753802</v>
+      </c>
+      <c r="E87">
+        <v>0.04550811315190628</v>
+      </c>
+      <c r="F87">
+        <v>0.1117354040559241</v>
+      </c>
+      <c r="G87">
+        <v>0.0496458036000364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1041394210994593</v>
+        <v>0.09055789041362379</v>
       </c>
       <c r="C88">
-        <v>0.0674686147513647</v>
+        <v>-0.06067919068433117</v>
       </c>
       <c r="D88">
-        <v>-0.01547157390411203</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.008784780215194117</v>
+      </c>
+      <c r="E88">
+        <v>0.01310039875546337</v>
+      </c>
+      <c r="F88">
+        <v>0.08171857910316151</v>
+      </c>
+      <c r="G88">
+        <v>0.03453000320568944</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.19612335504165</v>
+        <v>0.2105338293463782</v>
       </c>
       <c r="C89">
-        <v>-0.3701547535072035</v>
+        <v>0.3726006177432653</v>
       </c>
       <c r="D89">
-        <v>-0.01838966344894786</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01645494845084345</v>
+      </c>
+      <c r="E89">
+        <v>0.01141401854781013</v>
+      </c>
+      <c r="F89">
+        <v>0.07734808252789604</v>
+      </c>
+      <c r="G89">
+        <v>0.09182420412051796</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1810552903916952</v>
+        <v>0.1971541382988203</v>
       </c>
       <c r="C90">
-        <v>-0.3462654144281771</v>
+        <v>0.3221955690482738</v>
       </c>
       <c r="D90">
-        <v>0.02257078126793548</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01173332737602434</v>
+      </c>
+      <c r="E90">
+        <v>0.05268382961038531</v>
+      </c>
+      <c r="F90">
+        <v>0.05167243867182338</v>
+      </c>
+      <c r="G90">
+        <v>0.0259628799836862</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.20030976760742</v>
+        <v>0.1932093657002966</v>
       </c>
       <c r="C91">
-        <v>0.108362821047867</v>
+        <v>-0.1312367268765073</v>
       </c>
       <c r="D91">
-        <v>-0.04061010161134823</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08736485914540766</v>
+      </c>
+      <c r="E91">
+        <v>0.09856351142378895</v>
+      </c>
+      <c r="F91">
+        <v>0.0553022814127514</v>
+      </c>
+      <c r="G91">
+        <v>-0.04498857461251652</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1763203421908507</v>
+        <v>0.1796790838950314</v>
       </c>
       <c r="C92">
-        <v>-0.2760971497711197</v>
+        <v>0.2779946083917769</v>
       </c>
       <c r="D92">
-        <v>0.01529751325923136</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.006002468625774217</v>
+      </c>
+      <c r="E92">
+        <v>0.0769066192152465</v>
+      </c>
+      <c r="F92">
+        <v>0.07365320685502043</v>
+      </c>
+      <c r="G92">
+        <v>0.02891263280184915</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1938925732506449</v>
+        <v>0.2182254492202364</v>
       </c>
       <c r="C93">
-        <v>-0.3291872946356225</v>
+        <v>0.321597503866628</v>
       </c>
       <c r="D93">
-        <v>0.02181849719064663</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.005570155716727604</v>
+      </c>
+      <c r="E93">
+        <v>0.03811730372726297</v>
+      </c>
+      <c r="F93">
+        <v>0.0591266816289945</v>
+      </c>
+      <c r="G93">
+        <v>-0.0130851866602379</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2758006021451976</v>
+        <v>0.3421793697472213</v>
       </c>
       <c r="C94">
-        <v>0.1410752672204544</v>
+        <v>-0.1825861050716969</v>
       </c>
       <c r="D94">
-        <v>-0.07185038830267117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4142823667995546</v>
+      </c>
+      <c r="E94">
+        <v>0.3017116387968246</v>
+      </c>
+      <c r="F94">
+        <v>-0.4497226010447534</v>
+      </c>
+      <c r="G94">
+        <v>0.1978623663841415</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08736104815033088</v>
+        <v>0.08223668987098297</v>
       </c>
       <c r="C95">
-        <v>0.09007526705836758</v>
+        <v>-0.08764136652200265</v>
       </c>
       <c r="D95">
-        <v>0.05601875568263256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1374175764881607</v>
+      </c>
+      <c r="E95">
+        <v>-0.1484507164818472</v>
+      </c>
+      <c r="F95">
+        <v>0.005659185447010218</v>
+      </c>
+      <c r="G95">
+        <v>0.9086523311843328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.21003285239951</v>
+        <v>0.1930271418054496</v>
       </c>
       <c r="C98">
-        <v>0.03573609660442694</v>
+        <v>-0.0385474819830828</v>
       </c>
       <c r="D98">
-        <v>0.02778066067059028</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.143118354513629</v>
+      </c>
+      <c r="E98">
+        <v>-0.179757429695945</v>
+      </c>
+      <c r="F98">
+        <v>-0.04225833210554005</v>
+      </c>
+      <c r="G98">
+        <v>-0.1055856044497953</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01135954455254203</v>
+        <v>0.008983935977242815</v>
       </c>
       <c r="C101">
-        <v>0.02199730591156114</v>
+        <v>-0.02282872127680328</v>
       </c>
       <c r="D101">
-        <v>-0.01155674010557963</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01255799081096368</v>
+      </c>
+      <c r="E101">
+        <v>0.01205403051686807</v>
+      </c>
+      <c r="F101">
+        <v>0.09800011039590484</v>
+      </c>
+      <c r="G101">
+        <v>0.00441279001794374</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1226102076470007</v>
+        <v>0.1249336867774197</v>
       </c>
       <c r="C102">
-        <v>0.07379507768653271</v>
+        <v>-0.09511090883069834</v>
       </c>
       <c r="D102">
-        <v>-0.03132451371070041</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04609049705112176</v>
+      </c>
+      <c r="E102">
+        <v>0.01181714550474769</v>
+      </c>
+      <c r="F102">
+        <v>0.02880390700733773</v>
+      </c>
+      <c r="G102">
+        <v>-0.01156464270993176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
